--- a/vivo/data/tg475/preprocess/tg475_raw.xlsx
+++ b/vivo/data/tg475/preprocess/tg475_raw.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
+          <t>CA and MN assay</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CA and MN assay</t>
+          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>CA and MN assay</t>
+          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
+          <t>CA and MN assay</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>CA and MN assay</t>
+          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
+          <t>CA and MN assay</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -11686,17 +11686,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Potassium hydrogen tartrate</t>
+          <t>Gasoline, straight-run, topping-plant</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>868-14-4</t>
+          <t>68606-11-1</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11706,12 +11706,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>not examined</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J230" t="inlineStr"/>
@@ -13052,17 +13052,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>ambiguous</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -13101,17 +13101,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -24652,10 +24652,14 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F494" t="inlineStr"/>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -24665,7 +24669,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J494" t="inlineStr"/>
@@ -24697,14 +24701,10 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -24714,7 +24714,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="J495" t="inlineStr"/>
@@ -29904,22 +29904,22 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Rapal 01, Paval, Serox, Argalum</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>7440-48-4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>female</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>ambiguous</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
+          <t>The authors briefly mention that no mortality nor toxic symptoms were observed at any dose level in the range-finding study (OECD TG 420) nor in the 5 rats at the highest dose level in the main study.</t>
         </is>
       </c>
       <c r="K604" t="inlineStr"/>
@@ -34537,7 +34537,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -34557,7 +34557,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>CA and MN assay</t>
+          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
         </is>
       </c>
       <c r="K697" t="inlineStr"/>
@@ -34590,7 +34590,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>No adverse clinical signs were observed and no mortalities were obtained.</t>
+          <t>CA and MN assay</t>
         </is>
       </c>
       <c r="K698" t="inlineStr"/>
@@ -37837,22 +37837,22 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="H763" t="inlineStr">
@@ -37865,7 +37865,11 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>Balb/c mice</t>
+        </is>
+      </c>
       <c r="K763" t="inlineStr"/>
     </row>
     <row r="764">
@@ -37891,7 +37895,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
@@ -37916,7 +37920,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Balb/c mice</t>
+          <t>C57BL6 mice</t>
         </is>
       </c>
       <c r="K764" t="inlineStr"/>
@@ -37939,7 +37943,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -37949,12 +37953,12 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="H765" t="inlineStr">
@@ -37967,11 +37971,7 @@
           <t>valid</t>
         </is>
       </c>
-      <c r="J765" t="inlineStr">
-        <is>
-          <t>C57BL6 mice</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
     </row>
     <row r="766">
@@ -40675,11 +40675,7 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F821" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
+      <c r="F821" t="inlineStr"/>
       <c r="G821" t="inlineStr">
         <is>
           <t>valid</t>
@@ -40692,7 +40688,7 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="J821" t="inlineStr"/>
@@ -40724,7 +40720,11 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F822" t="inlineStr"/>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
       <c r="G822" t="inlineStr">
         <is>
           <t>valid</t>
@@ -40737,7 +40737,7 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J822" t="inlineStr"/>
@@ -41938,11 +41938,7 @@
         </is>
       </c>
       <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="G847" t="inlineStr"/>
       <c r="H847" t="inlineStr">
         <is>
           <t>valid</t>
@@ -41950,7 +41946,7 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="J847" t="inlineStr"/>
@@ -41983,7 +41979,11 @@
         </is>
       </c>
       <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr"/>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="H848" t="inlineStr">
         <is>
           <t>valid</t>
@@ -41991,7 +41991,7 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="J848" t="inlineStr"/>
@@ -42223,8 +42223,16 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr"/>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="H853" t="inlineStr">
         <is>
           <t>valid</t>
@@ -42264,16 +42272,8 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
       <c r="H854" t="inlineStr">
         <is>
           <t>valid</t>
@@ -50236,12 +50236,12 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F1018" t="inlineStr">
@@ -50264,7 +50264,11 @@
           <t>not specified</t>
         </is>
       </c>
-      <c r="J1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr">
+        <is>
+          <t>please refer to the field "Additional information on results" below</t>
+        </is>
+      </c>
       <c r="K1018" t="inlineStr"/>
     </row>
     <row r="1019">
@@ -50285,12 +50289,12 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F1019" t="inlineStr">
@@ -50313,11 +50317,7 @@
           <t>not specified</t>
         </is>
       </c>
-      <c r="J1019" t="inlineStr">
-        <is>
-          <t>please refer to the field "Additional information on results" below</t>
-        </is>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr"/>
     </row>
   </sheetData>
